--- a/docs/StructureDefinition-Servicios.xlsx
+++ b/docs/StructureDefinition-Servicios.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T23:29:58-03:00</t>
+    <t>2025-10-23T00:01:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl#Practitioner</t>
+    <t>element:https://interoperabilidad.minsal.cl/fhir/ig/agenda/StructureDefinition/Prestador#Practitioner</t>
   </si>
   <si>
     <t>ID</t>
